--- a/2_Formulas_Functions/2_Functions_Intro.xlsx
+++ b/2_Formulas_Functions/2_Functions_Intro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Excel\Public\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF50AE8-6F59-4DF5-B44C-2445C4C088D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688F3203-C0FD-48F5-897E-5002A3EA9142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42890" yWindow="-19270" windowWidth="18350" windowHeight="10350" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="9" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -216,7 +214,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -564,12 +562,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,6 +664,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,35 +1029,35 @@
   <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.83984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1">
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1108,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1161,10 @@
         <f>L3*M3=1</f>
         <v>1</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="22" t="b">
+        <f>AND(L3,M3)</f>
+        <v>1</v>
+      </c>
       <c r="R3" s="10" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1194,7 +1225,10 @@
         <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
         <v>0</v>
       </c>
-      <c r="P4" s="22"/>
+      <c r="P4" s="22" t="b">
+        <f t="shared" ref="P4:P12" si="10">AND(L4,M4)</f>
+        <v>0</v>
+      </c>
       <c r="R4" s="12" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1236,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1255,9 +1289,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P5" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15.75" thickBot="1">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1310,9 +1347,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P6" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.75" thickBot="1">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1365,9 +1405,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P7" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.75" thickBot="1">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1420,9 +1463,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P8" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15.75" thickBot="1">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1475,9 +1521,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P9" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1530,9 +1579,12 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P10" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="15.75" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1585,9 +1637,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="P11" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="15.75" thickBot="1">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
@@ -1640,47 +1695,89 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P12" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="15.75" thickTop="1">
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C13" s="19">
+        <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11+C12)/10</f>
+        <v>5.3</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" ref="D13:E13" si="11">(D3+D4+D5+D6+D7+D8+D9+D10+D11+D12)/10</f>
+        <v>119000</v>
+      </c>
+      <c r="E13" s="41">
+        <f t="shared" si="11"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.75" thickBot="1">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="20">
+        <f>AVERAGE(C3:C13)</f>
+        <v>5.3</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:E14" si="12">AVERAGE(D3:D13)</f>
+        <v>119000</v>
+      </c>
+      <c r="E14" s="32">
+        <f t="shared" si="12"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="15.75" thickTop="1">
       <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="19">
+        <f>COUNT(C3:C12)</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="19">
+        <f t="shared" ref="D15:E15" si="13">COUNT(D3:D12)</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="30">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="18">
+        <f>COUNTIF($C$3:$C$12,"&lt;=5")</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="18">
+        <f>COUNTIF(D3:D12,"&gt;=90000")</f>
+        <v>9</v>
+      </c>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1">
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
+      <c r="C17" s="35">
+        <f>COUNTIF($C$3:$C$12,"&lt;="&amp;S3)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="35">
+        <f>COUNTIF($C$3:$C$12,"&lt;="&amp;S4)</f>
+        <v>10</v>
+      </c>
+      <c r="E17" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1695,32 +1792,32 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.83984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1">
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1771,7 +1868,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +1996,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1957,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:19" ht="15.75" thickBot="1">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:19" ht="15.75" thickBot="1">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:19" ht="15.75" thickBot="1">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:19" ht="15.75" thickBot="1">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:19" ht="15.75" thickBot="1">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:19" ht="15.75" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:19" ht="15.75" thickBot="1">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:19" ht="15.75" thickTop="1">
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
@@ -2380,7 +2477,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:19" ht="15.75" thickBot="1">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
@@ -2401,7 +2498,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:19" ht="15.75" thickTop="1">
       <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
@@ -2418,7 +2515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:19">
       <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
@@ -2432,7 +2529,7 @@
       </c>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1">
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2459,15 +2556,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.1015625" customWidth="1"/>
-    <col min="2" max="2" width="13.41796875" customWidth="1"/>
-    <col min="3" max="3" width="31.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:4" ht="15">
       <c r="B2" s="37" t="s">
         <v>32</v>
       </c>
@@ -2478,7 +2575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:4">
       <c r="B3" s="38" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
@@ -2490,7 +2587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:4">
       <c r="B4" s="38" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
@@ -2502,7 +2599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:4">
       <c r="B5" s="9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2514,7 +2611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:4">
       <c r="B6" s="9" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
@@ -2526,7 +2623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:4">
       <c r="B7" s="38" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2538,7 +2635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:4">
       <c r="B8" s="38" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
@@ -2550,7 +2647,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:4">
       <c r="B9" s="38" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
